--- a/storage/seeds/segments.xlsx
+++ b/storage/seeds/segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Sites/reservation/storage/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA446214-FA80-5A49-95D0-F9603BD70CDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D092B-0E6B-6F47-A4E5-02D5EB9B052A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{142EB0B9-0108-4744-B8F8-F864DDCDBBA4}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>school</t>
   </si>
   <si>
-    <t>general</t>
+    <t>non-school</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
